--- a/input/verb.xlsx
+++ b/input/verb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09908EB-8E85-40C9-996B-E0D28DB5486F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BED6B-C834-4CFE-9D09-7A7183607CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8511BD-206E-450E-8039-DBA476924367}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:T13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1384,7 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>194</v>
       </c>
@@ -1395,1110 +1395,81 @@
         <v>200</v>
       </c>
       <c r="D1" s="21"/>
-      <c r="K1" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="D2" s="21"/>
-      <c r="K2" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>272</v>
+      </c>
       <c r="D3" s="21"/>
-      <c r="K3" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>229</v>
+      </c>
       <c r="D4" s="21"/>
-      <c r="K4" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="D5" s="21"/>
-      <c r="K5" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>231</v>
+      </c>
       <c r="D6" s="21"/>
-      <c r="K6" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="D7" s="21"/>
-      <c r="K7" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="21"/>
-      <c r="K8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K9" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K10" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K12" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T12" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K13" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="T13" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K14" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K15" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K16" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K17" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K18" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K19" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K20" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K21" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K22" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K26" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K28" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M28" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K29" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K30" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K31" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M31" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K32" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K33" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K34" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M34" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K36" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K37" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M37" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K38" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M38" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K39" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K40" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M40" s="21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K41" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M41" s="21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K42" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M42" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K43" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K44" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M44" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K45" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M45" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K46" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M46" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K47" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M47" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K48" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M48" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K49" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M49" s="21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K50" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M50" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K51" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M51" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K52" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L52" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M52" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K53" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M53" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K54" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M54" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K55" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M55" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K56" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L56" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M56" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K57" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M57" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K58" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L58" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K59" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L59" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M59" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="60" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K60" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L60" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M60" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K61" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M61" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K62" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M62" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K63" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K64" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M64" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K65" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M65" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K66" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M66" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K67" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M67" s="21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K68" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M68" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K69" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M69" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K70" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M70" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K71" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M71" s="21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K72" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M72" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K73" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L73" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M73" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K74" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L74" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M74" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K75" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L75" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M75" s="21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K76" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L76" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M76" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K77" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M77" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K78" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L78" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M78" s="21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K79" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L79" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M79" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K80" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L80" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M80" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K81" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L81" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M81" s="21" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K82" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L82" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M82" s="21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K83" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M83" s="21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="84" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K84" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L84" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M84" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K85" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M85" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K86" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L86" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M86" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K87" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L87" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M87" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K88" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L88" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M88" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K89" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M89" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K90" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L90" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M90" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K91" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M91" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K92" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L92" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M92" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K93" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L93" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M93" s="21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K94" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L94" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M94" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K95" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="L95" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="M95" s="21" t="s">
-        <v>205</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3464,12 +2435,1060 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>